--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,17 +956,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,31 +1127,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-14</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17-19</t>
+          <t>9-14</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,20 +1376,50 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>Landing gear lowered</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13-15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Please fly with caution</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>4-7</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,17 +956,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>13-18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -986,52 +986,52 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13-18</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GPS signal low . Aircraft unable to auto hover and takeoff restricted . Move to environment with adequate light . Unlocking takeoff restrictions not recommended .</t>
+          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>24-30</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1106,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>24-30</t>
+          <t>11-22</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1127,31 +1127,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error . Land or return to home promptly . After powering off the aircraft, replace the propeller on the beeping ESC . If the issue persists, contact DJI Support .</t>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Wind resistance affected</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11-22</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wind resistance affected</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>16-25</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>16-25</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,52 +1226,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>9-14</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9-14</t>
+          <t>17-19</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,12 +1286,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Strong wireless interference</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>17-19</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Strong wireless interference</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>9-11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9-11</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1376,50 +1376,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Please fly with caution</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>6</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Strong wireless interference . Please fly with caution . Obstacle Avoidance Disabled . Landing gear lowered . Obstacle Avoidance Disabled .</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Please fly with caution</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
